--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>3093.661159917669</v>
+        <v>12760.90731422265</v>
       </c>
       <c r="R2">
-        <v>3093.661159917669</v>
+        <v>114848.1658280039</v>
       </c>
       <c r="S2">
-        <v>0.0323471585114958</v>
+        <v>0.09897849006442994</v>
       </c>
       <c r="T2">
-        <v>0.0323471585114958</v>
+        <v>0.09897849006442994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>2968.210436093206</v>
+        <v>11074.87104194616</v>
       </c>
       <c r="R3">
-        <v>2968.210436093206</v>
+        <v>99673.83937751548</v>
       </c>
       <c r="S3">
-        <v>0.03103545233581374</v>
+        <v>0.0859009462570402</v>
       </c>
       <c r="T3">
-        <v>0.03103545233581374</v>
+        <v>0.08590094625704019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>4105.366323840746</v>
+        <v>15484.62097140978</v>
       </c>
       <c r="R4">
-        <v>4105.366323840746</v>
+        <v>139361.588742688</v>
       </c>
       <c r="S4">
-        <v>0.04292549453882905</v>
+        <v>0.1201046575475037</v>
       </c>
       <c r="T4">
-        <v>0.04292549453882905</v>
+        <v>0.1201046575475037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>9486.027433201791</v>
+        <v>10531.34419978059</v>
       </c>
       <c r="R5">
-        <v>9486.027433201791</v>
+        <v>94782.09779802529</v>
       </c>
       <c r="S5">
-        <v>0.09918540433637604</v>
+        <v>0.0816851436638283</v>
       </c>
       <c r="T5">
-        <v>0.09918540433637604</v>
+        <v>0.08168514366382829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>9101.360546235559</v>
+        <v>9139.889197449484</v>
       </c>
       <c r="R6">
-        <v>9101.360546235559</v>
+        <v>82259.00277704536</v>
       </c>
       <c r="S6">
-        <v>0.09516334758108759</v>
+        <v>0.07089248513790748</v>
       </c>
       <c r="T6">
-        <v>0.09516334758108759</v>
+        <v>0.07089248513790745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>12588.19746514596</v>
+        <v>12779.17543302767</v>
       </c>
       <c r="R7">
-        <v>12588.19746514596</v>
+        <v>115012.578897249</v>
       </c>
       <c r="S7">
-        <v>0.1316215311666268</v>
+        <v>0.09912018459845598</v>
       </c>
       <c r="T7">
-        <v>0.1316215311666268</v>
+        <v>0.09912018459845595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H8">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>16521.20779366769</v>
+        <v>18548.97093251867</v>
       </c>
       <c r="R8">
-        <v>16521.20779366769</v>
+        <v>166940.7383926681</v>
       </c>
       <c r="S8">
-        <v>0.1727448804759702</v>
+        <v>0.1438729308145232</v>
       </c>
       <c r="T8">
-        <v>0.1727448804759702</v>
+        <v>0.1438729308145232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H9">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>15851.25805805246</v>
+        <v>16098.18612266647</v>
       </c>
       <c r="R9">
-        <v>15851.25805805246</v>
+        <v>144883.6751039982</v>
       </c>
       <c r="S9">
-        <v>0.1657399212472557</v>
+        <v>0.1248637041209283</v>
       </c>
       <c r="T9">
-        <v>0.1657399212472557</v>
+        <v>0.1248637041209283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H10">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>21924.05909996415</v>
+        <v>22508.10050000318</v>
       </c>
       <c r="R10">
-        <v>21924.05909996415</v>
+        <v>202572.9045000286</v>
       </c>
       <c r="S10">
-        <v>0.2292368098065452</v>
+        <v>0.1745814577953829</v>
       </c>
       <c r="T10">
-        <v>0.2292368098065452</v>
+        <v>0.1745814577953829</v>
       </c>
     </row>
   </sheetData>
